--- a/dbterv.xlsx
+++ b/dbterv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\programs\TrainTicketSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18F8CE-1260-4771-B115-5CE6DB732188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00558C0-4227-4F6A-845A-7584F65D626C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6871A2EB-177C-48C5-9E1B-AE13A6F9D576}"/>
   </bookViews>
@@ -45,12 +45,6 @@
     <t>id_route</t>
   </si>
   <si>
-    <t>from (honnan)</t>
-  </si>
-  <si>
-    <t>to (hova)</t>
-  </si>
-  <si>
     <t>type (tipus)</t>
   </si>
   <si>
@@ -238,13 +232,19 @@
   </si>
   <si>
     <t>h6</t>
+  </si>
+  <si>
+    <t>firstStation (honnan)</t>
+  </si>
+  <si>
+    <t>lastStation (hova)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +261,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +300,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -577,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -593,10 +606,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,54 +657,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,6 +671,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -978,14 +994,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990BE904-1819-4CB9-AB38-D80BFB381A06}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1020,7 +1036,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="35"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1036,408 +1052,408 @@
     </row>
     <row r="2" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="13"/>
+      <c r="H2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="36"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="T2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>37</v>
-      </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="26" t="s">
+      <c r="T3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="27" t="s">
-        <v>47</v>
+      <c r="X3" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="18" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="S4" s="8"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="29"/>
+      <c r="X4" s="21"/>
       <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="18" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="S5" s="8"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="29"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="21"/>
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="18" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="S6" s="8"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="24" t="s">
+      <c r="T6" s="18"/>
+      <c r="U6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="X6" s="29"/>
+      <c r="X6" s="21"/>
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="18" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="R7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="S7" s="8"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="24" t="s">
+      <c r="T7" s="18"/>
+      <c r="U7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="29"/>
+      <c r="X7" s="21"/>
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="15"/>
+      <c r="E8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="K8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="29"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="24"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="21"/>
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="E9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="29"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>21</v>
+      <c r="H9" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="36"/>
+      <c r="K9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="24" t="s">
+      <c r="T9" s="18"/>
+      <c r="U9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="X9" s="29"/>
+      <c r="X9" s="21"/>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1448,33 +1464,33 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="36"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="24" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="W10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="X10" s="29"/>
+      <c r="X10" s="21"/>
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1485,29 +1501,29 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>21</v>
+      <c r="H11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="36"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="22"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1523,7 +1539,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -1545,14 +1561,14 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="15"/>
+      <c r="H13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="29"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1574,14 +1590,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="15"/>
+      <c r="H14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="29"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="36"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -1608,7 +1624,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="37"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1631,12 +1647,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="T3:T11"/>
-    <mergeCell ref="X3:X11"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="K8:L8"/>
@@ -1645,12 +1661,12 @@
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="M1:M15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T3:T11"/>
+    <mergeCell ref="X3:X11"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U11:W11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/dbterv.xlsx
+++ b/dbterv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\programs\TrainTicketSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00558C0-4227-4F6A-845A-7584F65D626C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FB160-7EB3-409C-8B94-E1F0436C9411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6871A2EB-177C-48C5-9E1B-AE13A6F9D576}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>string</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>seatCode</t>
-  </si>
-  <si>
-    <t>classType</t>
   </si>
   <si>
     <t>References</t>
@@ -307,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -414,19 +411,6 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="1"/>
@@ -590,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -610,74 +594,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -994,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990BE904-1819-4CB9-AB38-D80BFB381A06}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1033,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="33"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1052,408 +1049,404 @@
     </row>
     <row r="2" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
+      <c r="T2" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="17" t="s">
-        <v>45</v>
+      <c r="T3" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="U3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>45</v>
+      <c r="X3" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="34"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="S4" s="8"/>
-      <c r="T4" s="18"/>
+      <c r="T4" s="26"/>
       <c r="U4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="21"/>
+      <c r="X4" s="29"/>
       <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="38" t="s">
+      <c r="K5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="34"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="13" t="s">
+      <c r="R5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="S5" s="8"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="21"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="32"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="29"/>
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="34"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="S6" s="8"/>
-      <c r="T6" s="18"/>
+      <c r="T6" s="26"/>
       <c r="U6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="21"/>
+      <c r="X6" s="29"/>
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="34"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="P7" s="21"/>
+      <c r="Q7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="13" t="s">
+      <c r="R7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="S7" s="8"/>
-      <c r="T7" s="18"/>
+      <c r="T7" s="26"/>
       <c r="U7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="X7" s="21"/>
+      <c r="X7" s="29"/>
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="29"/>
+      <c r="E8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="K8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="21"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="29"/>
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="34"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="18"/>
+      <c r="T9" s="26"/>
       <c r="U9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="X9" s="21"/>
+      <c r="X9" s="29"/>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1464,33 +1457,33 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="16" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="34"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="18"/>
+      <c r="T10" s="26"/>
       <c r="U10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="W10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="W10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="X10" s="21"/>
+      <c r="X10" s="29"/>
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1501,29 +1494,29 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="34"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11" s="27"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="22"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="30"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1539,7 +1532,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -1561,14 +1554,14 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="29"/>
+      <c r="H13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="17"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="34"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1590,14 +1583,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="29"/>
+      <c r="H14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="17"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="34"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -1624,7 +1617,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="35"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1647,12 +1640,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T3:T11"/>
+    <mergeCell ref="X3:X11"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U11:W11"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="K8:L8"/>
@@ -1661,12 +1654,12 @@
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="M1:M15"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="T3:T11"/>
-    <mergeCell ref="X3:X11"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/dbterv.xlsx
+++ b/dbterv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\programs\TrainTicketSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FB160-7EB3-409C-8B94-E1F0436C9411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8840CE5-4545-4010-8D57-DA0E8B2109AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6871A2EB-177C-48C5-9E1B-AE13A6F9D576}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>string</t>
   </si>
@@ -111,124 +111,10 @@
     <t>Első osztály üléskodok</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
     <t>Folyosó</t>
   </si>
   <si>
     <t>Másod osztály üléskodók</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>g6</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>h3</t>
-  </si>
-  <si>
-    <t>h4</t>
-  </si>
-  <si>
-    <t>h5</t>
-  </si>
-  <si>
-    <t>h6</t>
   </si>
   <si>
     <t>firstStation (honnan)</t>
@@ -596,85 +482,85 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -991,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990BE904-1819-4CB9-AB38-D80BFB381A06}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +919,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="22"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1049,41 +935,41 @@
     </row>
     <row r="2" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39"/>
+      <c r="T2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1115,44 +1001,44 @@
       <c r="L3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="13" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="13">
+        <v>11</v>
+      </c>
+      <c r="O3" s="13">
+        <v>12</v>
+      </c>
+      <c r="P3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>34</v>
+      <c r="Q3" s="13">
+        <v>13</v>
+      </c>
+      <c r="R3" s="13">
+        <v>14</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>44</v>
+      <c r="T3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="15">
+        <v>61</v>
+      </c>
+      <c r="V3" s="15">
+        <v>62</v>
+      </c>
+      <c r="W3" s="15">
+        <v>63</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>0</v>
@@ -1178,38 +1064,38 @@
       <c r="L4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>37</v>
+      <c r="M4" s="40"/>
+      <c r="N4" s="13">
+        <v>21</v>
+      </c>
+      <c r="O4" s="13">
+        <v>22</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="13">
+        <v>23</v>
+      </c>
+      <c r="R4" s="13">
+        <v>24</v>
       </c>
       <c r="S4" s="8"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" s="29"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="14">
+        <v>64</v>
+      </c>
+      <c r="V4" s="14">
+        <v>65</v>
+      </c>
+      <c r="W4" s="14">
+        <v>66</v>
+      </c>
+      <c r="X4" s="25"/>
       <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>0</v>
@@ -1233,30 +1119,30 @@
         <v>23</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="M5" s="40"/>
+      <c r="N5" s="13">
+        <v>31</v>
+      </c>
+      <c r="O5" s="13">
+        <v>32</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="13">
+        <v>33</v>
+      </c>
+      <c r="R5" s="13">
+        <v>34</v>
       </c>
       <c r="S5" s="8"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="29"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="28"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="25"/>
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1282,34 +1168,34 @@
         <v>1</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="13" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="13">
         <v>41</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="13" t="s">
+      <c r="O6" s="13">
         <v>42</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="13">
         <v>43</v>
       </c>
+      <c r="R6" s="13">
+        <v>44</v>
+      </c>
       <c r="S6" s="8"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" s="29"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="14">
+        <v>71</v>
+      </c>
+      <c r="V6" s="14">
+        <v>72</v>
+      </c>
+      <c r="W6" s="14">
+        <v>73</v>
+      </c>
+      <c r="X6" s="25"/>
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1333,32 +1219,32 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>49</v>
+      <c r="M7" s="40"/>
+      <c r="N7" s="13">
+        <v>51</v>
+      </c>
+      <c r="O7" s="13">
+        <v>52</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="13">
+        <v>53</v>
+      </c>
+      <c r="R7" s="13">
+        <v>54</v>
       </c>
       <c r="S7" s="8"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="X7" s="29"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="14">
+        <v>74</v>
+      </c>
+      <c r="V7" s="14">
+        <v>75</v>
+      </c>
+      <c r="W7" s="14">
+        <v>76</v>
+      </c>
+      <c r="X7" s="25"/>
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1370,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="8"/>
       <c r="H8" s="16" t="s">
         <v>17</v>
@@ -1382,26 +1268,26 @@
         <v>1</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="29"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="25"/>
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1413,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="8"/>
       <c r="H9" s="16" t="s">
         <v>18</v>
@@ -1425,28 +1311,28 @@
         <v>19</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="23"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="29"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="14">
+        <v>81</v>
+      </c>
+      <c r="V9" s="14">
+        <v>82</v>
+      </c>
+      <c r="W9" s="14">
+        <v>83</v>
+      </c>
+      <c r="X9" s="25"/>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1466,24 +1352,24 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="23"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="X10" s="29"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="14">
+        <v>84</v>
+      </c>
+      <c r="V10" s="14">
+        <v>85</v>
+      </c>
+      <c r="W10" s="14">
+        <v>86</v>
+      </c>
+      <c r="X10" s="25"/>
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1503,20 +1389,20 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="23"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="30"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="31"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="26"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1532,7 +1418,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="23"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -1554,14 +1440,14 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="23"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1583,14 +1469,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="40"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -1617,7 +1503,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1640,12 +1526,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="T3:T11"/>
-    <mergeCell ref="X3:X11"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="K8:L8"/>
@@ -1654,12 +1540,12 @@
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="M1:M15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T3:T11"/>
+    <mergeCell ref="X3:X11"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U11:W11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
